--- a/results/metric_df/MPA_metrics.xlsx
+++ b/results/metric_df/MPA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>-0.2335921575416738</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.304707888674487</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>4.609415777348975</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.51662980429828</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.6411525514115255</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.401782778429984</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>-0.2356751097282142</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.866596875406828</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>3.733193750813656</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.061288777063059</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.9220899999999997</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.4622673731508997</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>-0.2285303880332434</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.276210011362986</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>4.552420022725972</v>
       </c>
-      <c r="E4" t="n">
-        <v>2.303706074153936</v>
-      </c>
       <c r="F4" t="n">
-        <v>1.417483415008167</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.285</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.8882760017199952</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>6.850865438154459</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.000294004868075</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>6.00058800973615</v>
       </c>
-      <c r="E5" t="n">
-        <v>3.189582406391184</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.1687231276872313</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.1409753874816635</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +595,24 @@
       <c r="B6" t="n">
         <v>-0.244229474188503</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.590692975442572</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>5.181385950885144</v>
       </c>
-      <c r="E6" t="n">
-        <v>3.057860542208748</v>
-      </c>
       <c r="F6" t="n">
-        <v>2.318468153184682</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.431</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.385</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.45288445665106</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -744,43 +624,24 @@
       <c r="B7" t="n">
         <v>-0.2421933506721614</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.287435127153463</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>4.574870254306926</v>
       </c>
-      <c r="E7" t="n">
-        <v>2.912394011130452</v>
-      </c>
       <c r="F7" t="n">
-        <v>1.448283333333333</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4325</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.9075769882525417</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -792,43 +653,24 @@
       <c r="B8" t="n">
         <v>-0.20472538534908</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.805191221245623</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>3.610382442491247</v>
       </c>
-      <c r="E8" t="n">
-        <v>2.372823188008722</v>
-      </c>
       <c r="F8" t="n">
-        <v>2.500575057505751</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.253602428396191</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -840,43 +682,24 @@
       <c r="B9" t="n">
         <v>-0.2410690994244315</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.301723587428959</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4.603447174857918</v>
       </c>
-      <c r="E9" t="n">
-        <v>3.012800118574837</v>
-      </c>
       <c r="F9" t="n">
-        <v>1.164805555555555</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.7299336350007064</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -888,43 +711,24 @@
       <c r="B10" t="n">
         <v>-0.2168579796027346</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.735823908927768</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.471647817855536</v>
       </c>
-      <c r="E10" t="n">
-        <v>2.333981990225368</v>
-      </c>
       <c r="F10" t="n">
-        <v>1.470787078707871</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.383</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.7373432954902157</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
